--- a/sheets/input/tests/Arnot_match_DO_NOT_EDIT.xlsx
+++ b/sheets/input/tests/Arnot_match_DO_NOT_EDIT.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Sample and Time Input" sheetId="1" state="visible" r:id="rId2"/>
@@ -17,7 +17,6 @@
     <sheet name="Organism Diet" sheetId="7" state="visible" r:id="rId8"/>
     <sheet name="Migratory Input" sheetId="8" state="visible" r:id="rId9"/>
     <sheet name="Sample Sites" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="Sheet10" sheetId="10" state="visible" r:id="rId11"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -403,10 +402,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="M/D/YYYY"/>
-    <numFmt numFmtId="166" formatCode="0.00E+00"/>
+    <numFmt numFmtId="165" formatCode="General"/>
+    <numFmt numFmtId="166" formatCode="M/D/YYYY"/>
+    <numFmt numFmtId="167" formatCode="0.00E+00"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -815,7 +815,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -827,7 +827,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -847,7 +847,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="11" fillId="5" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="11" fillId="5" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -863,7 +863,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -935,7 +935,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -963,7 +963,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -983,7 +983,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -1146,9 +1146,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>1018080</xdr:colOff>
+      <xdr:colOff>1017720</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>188640</xdr:rowOff>
+      <xdr:rowOff>188280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1158,7 +1158,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="14044680" y="863280"/>
-          <a:ext cx="9470520" cy="7618320"/>
+          <a:ext cx="9470160" cy="7617960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1625,9 +1625,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>3630240</xdr:colOff>
+      <xdr:colOff>3629880</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>181800</xdr:rowOff>
+      <xdr:rowOff>181440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1637,7 +1637,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12356640" y="699480"/>
-          <a:ext cx="3083760" cy="994680"/>
+          <a:ext cx="3083400" cy="994320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1848,9 +1848,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>2330640</xdr:colOff>
+      <xdr:colOff>2330280</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>188640</xdr:rowOff>
+      <xdr:rowOff>188280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1864,7 +1864,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="16507800" y="10278720"/>
-          <a:ext cx="2330640" cy="734760"/>
+          <a:ext cx="2330280" cy="734400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1885,7 +1885,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>4759920</xdr:colOff>
+      <xdr:colOff>4759560</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>87120</xdr:rowOff>
     </xdr:to>
@@ -1897,7 +1897,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11824920" y="2007000"/>
-          <a:ext cx="9442800" cy="3200760"/>
+          <a:ext cx="9442440" cy="3200760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2364,9 +2364,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>255240</xdr:colOff>
+      <xdr:colOff>254880</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>141480</xdr:rowOff>
+      <xdr:rowOff>141120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2376,7 +2376,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="16398360" y="1476360"/>
-          <a:ext cx="3602520" cy="760320"/>
+          <a:ext cx="3602160" cy="759960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2506,9 +2506,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1132200</xdr:colOff>
+      <xdr:colOff>1131840</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>188640</xdr:rowOff>
+      <xdr:rowOff>188280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2518,7 +2518,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="14774760" y="1714680"/>
-          <a:ext cx="2930040" cy="759960"/>
+          <a:ext cx="2929680" cy="759600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3265,9 +3265,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>642600</xdr:colOff>
+      <xdr:colOff>642240</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>131760</xdr:rowOff>
+      <xdr:rowOff>131400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3277,7 +3277,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8870760" y="2521800"/>
-          <a:ext cx="9087480" cy="3567240"/>
+          <a:ext cx="9087120" cy="3566880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3805,9 +3805,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>150480</xdr:colOff>
+      <xdr:colOff>150120</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>9360</xdr:rowOff>
+      <xdr:rowOff>9000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3817,7 +3817,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8939880" y="674280"/>
-          <a:ext cx="4074840" cy="948600"/>
+          <a:ext cx="4074480" cy="948240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3924,9 +3924,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>3565800</xdr:colOff>
+      <xdr:colOff>3565440</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:rowOff>45360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3936,7 +3936,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4629240" y="4925160"/>
-          <a:ext cx="5157360" cy="760320"/>
+          <a:ext cx="5157000" cy="759960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4038,9 +4038,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>2592360</xdr:colOff>
+      <xdr:colOff>2592000</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>189360</xdr:rowOff>
+      <xdr:rowOff>189000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4050,7 +4050,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="16049880" y="5488560"/>
-          <a:ext cx="4330440" cy="340560"/>
+          <a:ext cx="4330080" cy="340200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4122,9 +4122,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>5383080</xdr:colOff>
+      <xdr:colOff>5382720</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>137880</xdr:rowOff>
+      <xdr:rowOff>137520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4134,7 +4134,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9213840" y="76320"/>
-          <a:ext cx="5256000" cy="1496520"/>
+          <a:ext cx="5255640" cy="1496160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4336,9 +4336,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>6883560</xdr:colOff>
+      <xdr:colOff>6883200</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>87120</xdr:rowOff>
+      <xdr:rowOff>86760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4348,7 +4348,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10153440" y="2298600"/>
-          <a:ext cx="5816880" cy="658440"/>
+          <a:ext cx="5816520" cy="658080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4455,9 +4455,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>252360</xdr:colOff>
+      <xdr:colOff>252000</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>61560</xdr:rowOff>
+      <xdr:rowOff>61200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4467,7 +4467,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11960640" y="241200"/>
-          <a:ext cx="5135400" cy="391680"/>
+          <a:ext cx="5135040" cy="391320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4579,9 +4579,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>99720</xdr:colOff>
+      <xdr:colOff>99360</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>188640</xdr:rowOff>
+      <xdr:rowOff>188280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4591,7 +4591,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12062160" y="1295280"/>
-          <a:ext cx="3861720" cy="417240"/>
+          <a:ext cx="3861360" cy="416880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4648,9 +4648,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>468360</xdr:colOff>
+      <xdr:colOff>468000</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>188640</xdr:rowOff>
+      <xdr:rowOff>188280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4660,7 +4660,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12087720" y="2158560"/>
-          <a:ext cx="5224320" cy="696960"/>
+          <a:ext cx="5223960" cy="696600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4717,9 +4717,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
-      <xdr:colOff>644400</xdr:colOff>
+      <xdr:colOff>644040</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>61560</xdr:rowOff>
+      <xdr:rowOff>61200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4729,7 +4729,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="36809280" y="241200"/>
-          <a:ext cx="4103640" cy="391680"/>
+          <a:ext cx="4103280" cy="391320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4796,9 +4796,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>55</xdr:col>
-      <xdr:colOff>949320</xdr:colOff>
+      <xdr:colOff>948960</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>61560</xdr:rowOff>
+      <xdr:rowOff>61200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4808,7 +4808,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="59091120" y="241200"/>
-          <a:ext cx="4562280" cy="391680"/>
+          <a:ext cx="4561920" cy="391320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4875,9 +4875,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>76</xdr:col>
-      <xdr:colOff>691200</xdr:colOff>
+      <xdr:colOff>690840</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>61560</xdr:rowOff>
+      <xdr:rowOff>61200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4887,7 +4887,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="81165600" y="241200"/>
-          <a:ext cx="3645720" cy="391680"/>
+          <a:ext cx="3645360" cy="391320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4954,9 +4954,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>97</xdr:col>
-      <xdr:colOff>948960</xdr:colOff>
+      <xdr:colOff>948600</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>61560</xdr:rowOff>
+      <xdr:rowOff>61200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4966,7 +4966,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="101922840" y="241200"/>
-          <a:ext cx="4562280" cy="391680"/>
+          <a:ext cx="4561920" cy="391320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5033,9 +5033,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>118</xdr:col>
-      <xdr:colOff>691200</xdr:colOff>
+      <xdr:colOff>690840</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>61560</xdr:rowOff>
+      <xdr:rowOff>61200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5045,7 +5045,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="123997680" y="241200"/>
-          <a:ext cx="3645720" cy="391680"/>
+          <a:ext cx="3645360" cy="391320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5117,9 +5117,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>277560</xdr:colOff>
+      <xdr:colOff>277200</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>163440</xdr:rowOff>
+      <xdr:rowOff>163080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5129,7 +5129,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="13899240" y="761760"/>
-          <a:ext cx="6530040" cy="5878440"/>
+          <a:ext cx="6529680" cy="5878080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5245,7 +5245,7 @@
   </sheetPr>
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -5358,32 +5358,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.36"/>
-  </cols>
-  <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
@@ -5391,8 +5365,8 @@
   </sheetPr>
   <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5718,7 +5692,7 @@
   </sheetPr>
   <dimension ref="A1:GK2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="EJ1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="EP2" activeCellId="0" sqref="EP2"/>
     </sheetView>
   </sheetViews>
@@ -6355,7 +6329,7 @@
   </sheetPr>
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B5" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -6518,8 +6492,8 @@
   </sheetPr>
   <dimension ref="A1:GK7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="EG1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="EP4" activeCellId="0" sqref="EP4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7739,8 +7713,8 @@
   </sheetPr>
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9317,8 +9291,8 @@
   </sheetPr>
   <dimension ref="A1:AW100"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G40" activeCellId="0" sqref="G40"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C29" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C35" activeCellId="0" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
